--- a/failures.xlsx
+++ b/failures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Frian\Documents\School\College\TAMU\Spring2019\csce420\NeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA83CA6-5CE4-49EE-A18D-AA2B2BE506D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4123A-2813-4397-AED6-5F9D41754BF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1798,16 +1798,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2135,7 +2135,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
